--- a/project/12306用户故事.xlsx
+++ b/project/12306用户故事.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>可以通过票价进行筛选或者时间进行筛选</t>
   </si>
@@ -183,6 +183,127 @@
   </si>
   <si>
     <t>作为一个爱旅游的购票者，我希望能够有目的地旅游向导，以便于我更快捷了解目的地的热门景点</t>
+  </si>
+  <si>
+    <t>注册账号</t>
+  </si>
+  <si>
+    <t>作为一个用户，我希望拥有一个自己的账户来保证隐私。</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>登录账号</t>
+  </si>
+  <si>
+    <r>
+      <t>作为一个用户，我希望通过自己的账户来登录1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2306网站</t>
+    </r>
+  </si>
+  <si>
+    <t>获取验证码</t>
+  </si>
+  <si>
+    <t>作为一个用户，我希望可以更加安全的登录自己的账号。</t>
+  </si>
+  <si>
+    <t>检索功能</t>
+  </si>
+  <si>
+    <t>作为一个用户，我希望能够通过动车票、火车票、高铁票来快速锁定自己需要的交通工具。</t>
+  </si>
+  <si>
+    <t>日期选择</t>
+  </si>
+  <si>
+    <t>作为一个用户，我希望能够准确地快速的选择出行日期。</t>
+  </si>
+  <si>
+    <t>购票</t>
+  </si>
+  <si>
+    <r>
+      <t>作为一个App用户，我希望能够在此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>app上购买车票。</t>
+    </r>
+  </si>
+  <si>
+    <t>退票</t>
+  </si>
+  <si>
+    <t>作为一个App用户，我希望能够在此app上退掉车票。</t>
+  </si>
+  <si>
+    <t>客服</t>
+  </si>
+  <si>
+    <t>作为一个用户，我希望在购票过程中出现错误无法解决时能够联系客服进行咨询。</t>
+  </si>
+  <si>
+    <t>更改个人资料</t>
+  </si>
+  <si>
+    <t>作为一个用户，我希望可以根据自己的实际情况及时更新自己的资料。</t>
+  </si>
+  <si>
+    <t>忘记密码</t>
+  </si>
+  <si>
+    <t>作为一个用户，我希望自己在不小心忘掉密码后，可以重新找回自己的密码。</t>
+  </si>
+  <si>
+    <t>行程</t>
+  </si>
+  <si>
+    <t>作为一个App用户，我希望能够在购票后了解发车的准确时间。</t>
+  </si>
+  <si>
+    <t>正晚点查询</t>
+  </si>
+  <si>
+    <t>作为一个用户，我希望可以了解自己所购票车辆是否准时或者晚点。</t>
+  </si>
+  <si>
+    <r>
+      <t>作为一个用户，我希望通过自己的账户来登录1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2306网站</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>作为一个App用户，我希望能够在此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>app上购买车票。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -194,7 +315,7 @@
     <numFmt numFmtId="65" formatCode="0;\-0;;@\ "/>
     <numFmt numFmtId="66" formatCode="0.00;\-0.00;;@\ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="39">
     <font>
       <sz val="11.0"/>
       <name val="宋体"/>
@@ -368,23 +489,6 @@
       <color theme="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.0"/>
-      <name val="宋体"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <name val="宋体"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.0"/>
-      <name val="宋体"/>
-      <color rgb="FFDD0806"/>
-    </font>
-    <font>
       <sz val="10.0"/>
       <name val="宋体"/>
       <color theme="1"/>
@@ -440,18 +544,13 @@
       <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="宋体"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
       <b/>
       <sz val="11.0"/>
       <name val="宋体"/>
       <color rgb="FFDD0806"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,61 +748,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -714,7 +759,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -724,17 +770,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="49">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -749,25 +797,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -782,7 +838,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -797,7 +855,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -812,13 +872,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -827,7 +891,9 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -842,7 +908,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -857,12 +925,12 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -872,80 +940,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -956,7 +953,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -971,7 +970,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -984,7 +985,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -999,7 +1002,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1014,7 +1019,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -1029,7 +1036,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1042,7 +1051,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1053,7 +1064,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1068,7 +1081,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1081,6 +1096,154 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1100,7 +1263,80 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
@@ -1179,10 +1415,63 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1333,525 +1622,576 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="65" fontId="21" fillId="2" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="21" fillId="2" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="44" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="65" fontId="21" fillId="46" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="65" fontId="21" fillId="2" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="66" fontId="21" fillId="2" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="21" fillId="2" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="65" fontId="21" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="66" fontId="21" fillId="35" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="65" fontId="31" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="66" fontId="31" fillId="35" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="65" fontId="35" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="66" fontId="35" fillId="35" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="65" fontId="23" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="66" fontId="23" fillId="35" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="65" fontId="21" fillId="36" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="66" fontId="21" fillId="47" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="21" fillId="37" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="65" fontId="21" fillId="46" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="66" fontId="21" fillId="47" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="44" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="65" fontId="21" fillId="46" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="65" fontId="21" fillId="48" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="66" fontId="21" fillId="48" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="45" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="65" fontId="29" fillId="48" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="45" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="45" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="42" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="45" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="45" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="66" fontId="29" fillId="48" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="45" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="65" fontId="34" fillId="48" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="40" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="41" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="43" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="66" fontId="34" fillId="48" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="33" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="45" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="38" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="39" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="65" fontId="38" fillId="48" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="40" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="45" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="41" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="45" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="42" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="45" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="43" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="45" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="66" fontId="38" fillId="48" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="44" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="45" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="36" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="45" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="37" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="39" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="65" fontId="41" fillId="48" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="40" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="45" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="41" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="45" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="45" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="43" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="45" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="66" fontId="41" fillId="48" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="44" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="45" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="65" fontId="23" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="66" fontId="23" fillId="35" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="65" fontId="23" fillId="36" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="23" fillId="37" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - 强调文字1" xfId="25" builtinId="30"/>
@@ -2194,605 +2534,1111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A19" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="39.750000" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="34.500000" customHeight="1"/>
   <cols>
-    <col min="1" max="2" style="66" width="9.05704891" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="66" width="9.30849468" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="66" width="14.21168815" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="66" width="11.94867622" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="66" width="41.99645053" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" style="66" width="9.05704891" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" style="66" width="8.17698871" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" style="66" width="12.57729064" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="12" style="66" width="9.05704891" customWidth="1" outlineLevel="0"/>
-    <col min="13" max="13" style="66" width="10.44000160" customWidth="1" outlineLevel="0"/>
-    <col min="14" max="16384" style="66" width="9.05704891" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="2" style="158" width="9.05704891" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="158" width="9.30849468" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="158" width="14.21168815" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="158" width="11.94867622" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="158" width="41.99645053" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" style="158" width="9.05704891" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" style="158" width="8.17698871" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" style="158" width="12.57729064" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="12" style="158" width="9.05704891" customWidth="1" outlineLevel="0"/>
+    <col min="13" max="13" style="158" width="10.44000160" customWidth="1" outlineLevel="0"/>
+    <col min="14" max="16384" style="158" width="9.05704891" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="39.750000" customHeight="1">
-      <c r="A1" s="151" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="153" t="s">
+    <row r="1" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A1" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="156" t="s">
+      <c r="D1" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="158" t="s">
+      <c r="E1" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="158" t="s">
+      <c r="F1" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="159" t="s">
+      <c r="G1" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="159" t="s">
+      <c r="H1" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="160" t="s">
+      <c r="I1" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="162" t="s">
+      <c r="J1" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="165" t="s">
+      <c r="K1" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="168" t="s">
+      <c r="L1" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="171" t="s">
+      <c r="M1" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="171" t="s">
+      <c r="N1" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="171" t="s">
+      <c r="O1" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="171" t="s">
+      <c r="P1" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="175" t="s">
+      <c r="Q1" s="179" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="39.750000" customHeight="1">
-      <c r="A2" s="66">
-        <v>1</v>
-      </c>
-      <c r="B2" s="66">
-        <v>1</v>
-      </c>
-      <c r="C2" s="66">
-        <v>1</v>
-      </c>
-      <c r="D2" s="66" t="s">
+    <row r="2" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A2" s="158">
+        <v>1</v>
+      </c>
+      <c r="B2" s="158">
+        <v>1</v>
+      </c>
+      <c r="C2" s="158">
+        <v>1</v>
+      </c>
+      <c r="D2" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="155" t="s">
+      <c r="G2" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="157" t="s">
+      <c r="H2" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="66">
-        <v>1</v>
-      </c>
-      <c r="J2" s="66">
+      <c r="I2" s="158">
+        <v>1</v>
+      </c>
+      <c r="J2" s="158">
         <v>88</v>
       </c>
-      <c r="M2" s="66">
+      <c r="M2" s="158">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="39.750000" customHeight="1">
-      <c r="A3" s="66">
+    <row r="3" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A3" s="158">
         <v>2</v>
       </c>
-      <c r="B3" s="66">
-        <v>1</v>
-      </c>
-      <c r="C3" s="66">
-        <v>1</v>
-      </c>
-      <c r="D3" s="66" t="s">
+      <c r="B3" s="158">
+        <v>1</v>
+      </c>
+      <c r="C3" s="158">
+        <v>1</v>
+      </c>
+      <c r="D3" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="155" t="s">
+      <c r="G3" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="157" t="s">
+      <c r="H3" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="66">
+      <c r="I3" s="158">
         <v>2</v>
       </c>
-      <c r="J3" s="66">
+      <c r="J3" s="158">
         <v>76</v>
       </c>
-      <c r="M3" s="66">
+      <c r="M3" s="158">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="39.750000" customHeight="1">
-      <c r="A4" s="66">
+    <row r="4" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A4" s="158">
         <v>3</v>
       </c>
-      <c r="B4" s="66">
-        <v>1</v>
-      </c>
-      <c r="C4" s="66">
-        <v>1</v>
-      </c>
-      <c r="D4" s="66" t="s">
+      <c r="B4" s="158">
+        <v>1</v>
+      </c>
+      <c r="C4" s="158">
+        <v>1</v>
+      </c>
+      <c r="D4" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="155" t="s">
+      <c r="G4" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="157" t="s">
+      <c r="H4" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="66">
-        <v>1</v>
-      </c>
-      <c r="J4" s="66">
+      <c r="I4" s="158">
+        <v>1</v>
+      </c>
+      <c r="J4" s="158">
         <v>11</v>
       </c>
-      <c r="M4" s="66">
+      <c r="M4" s="158">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="39.750000" customHeight="1">
-      <c r="A5" s="66">
+    <row r="5" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A5" s="158">
         <v>4</v>
       </c>
-      <c r="B5" s="66">
-        <v>1</v>
-      </c>
-      <c r="C5" s="66">
-        <v>1</v>
-      </c>
-      <c r="D5" s="66" t="s">
+      <c r="B5" s="158">
+        <v>1</v>
+      </c>
+      <c r="C5" s="158">
+        <v>1</v>
+      </c>
+      <c r="D5" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="155" t="s">
+      <c r="G5" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="157" t="s">
+      <c r="H5" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="66">
+      <c r="I5" s="158">
         <v>2</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="158">
         <v>23</v>
       </c>
-      <c r="M5" s="66">
+      <c r="M5" s="158">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="39.750000" customHeight="1">
-      <c r="A6" s="66">
+    <row r="6" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A6" s="158">
         <v>5</v>
       </c>
-      <c r="B6" s="66">
-        <v>1</v>
-      </c>
-      <c r="C6" s="66">
-        <v>1</v>
-      </c>
-      <c r="D6" s="66" t="s">
+      <c r="B6" s="158">
+        <v>1</v>
+      </c>
+      <c r="C6" s="158">
+        <v>1</v>
+      </c>
+      <c r="D6" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="155" t="s">
+      <c r="G6" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="157" t="s">
+      <c r="H6" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="66">
-        <v>1</v>
-      </c>
-      <c r="J6" s="66">
+      <c r="I6" s="158">
+        <v>1</v>
+      </c>
+      <c r="J6" s="158">
         <v>44</v>
       </c>
-      <c r="M6" s="66">
+      <c r="M6" s="158">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="39.750000" customHeight="1">
-      <c r="A7" s="66">
+    <row r="7" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A7" s="158">
         <v>6</v>
       </c>
-      <c r="B7" s="66">
-        <v>1</v>
-      </c>
-      <c r="C7" s="66">
-        <v>1</v>
-      </c>
-      <c r="D7" s="66" t="s">
+      <c r="B7" s="158">
+        <v>1</v>
+      </c>
+      <c r="C7" s="158">
+        <v>1</v>
+      </c>
+      <c r="D7" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="155" t="s">
+      <c r="G7" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="157" t="s">
+      <c r="H7" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="66">
-        <v>1</v>
-      </c>
-      <c r="J7" s="66">
+      <c r="I7" s="158">
+        <v>1</v>
+      </c>
+      <c r="J7" s="158">
         <v>55</v>
       </c>
-      <c r="M7" s="66">
+      <c r="M7" s="158">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="39.750000" customHeight="1">
-      <c r="A8" s="66">
+    <row r="8" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A8" s="158">
         <v>7</v>
       </c>
-      <c r="B8" s="66">
-        <v>1</v>
-      </c>
-      <c r="C8" s="66">
-        <v>1</v>
-      </c>
-      <c r="D8" s="66" t="s">
+      <c r="B8" s="158">
+        <v>1</v>
+      </c>
+      <c r="C8" s="158">
+        <v>1</v>
+      </c>
+      <c r="D8" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="155" t="s">
+      <c r="G8" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="157" t="s">
+      <c r="H8" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="66">
+      <c r="I8" s="158">
         <v>2</v>
       </c>
-      <c r="J8" s="66">
+      <c r="J8" s="158">
         <v>43</v>
       </c>
-      <c r="M8" s="66">
+      <c r="M8" s="158">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="39.750000" customHeight="1">
-      <c r="A9" s="66">
+    <row r="9" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A9" s="158">
         <v>8</v>
       </c>
-      <c r="B9" s="66">
-        <v>1</v>
-      </c>
-      <c r="C9" s="66">
-        <v>1</v>
-      </c>
-      <c r="D9" s="66" t="s">
+      <c r="B9" s="158">
+        <v>1</v>
+      </c>
+      <c r="C9" s="158">
+        <v>1</v>
+      </c>
+      <c r="D9" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="157" t="s">
+      <c r="H9" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="66">
-        <v>1</v>
-      </c>
-      <c r="J9" s="66">
+      <c r="I9" s="158">
+        <v>1</v>
+      </c>
+      <c r="J9" s="158">
         <v>15</v>
       </c>
-      <c r="M9" s="66">
+      <c r="M9" s="158">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="39.750000" customHeight="1">
-      <c r="A10" s="152">
+    <row r="10" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A10" s="160">
         <v>9</v>
       </c>
-      <c r="B10" s="152">
-        <v>1</v>
-      </c>
-      <c r="C10" s="155">
-        <v>1</v>
-      </c>
-      <c r="D10" s="155" t="s">
+      <c r="B10" s="160">
+        <v>1</v>
+      </c>
+      <c r="C10" s="162">
+        <v>1</v>
+      </c>
+      <c r="D10" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="155" t="s">
+      <c r="E10" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="155" t="s">
+      <c r="F10" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="155" t="s">
+      <c r="G10" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="157" t="s">
+      <c r="H10" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="161">
+      <c r="I10" s="165">
         <v>3</v>
       </c>
-      <c r="J10" s="163">
+      <c r="J10" s="167">
         <v>98</v>
       </c>
-      <c r="K10" s="166"/>
-      <c r="L10" s="169"/>
-      <c r="M10" s="172">
+      <c r="K10" s="170"/>
+      <c r="L10" s="173"/>
+      <c r="M10" s="176">
         <v>4</v>
       </c>
-      <c r="N10" s="174"/>
-      <c r="O10" s="172"/>
-      <c r="P10" s="172"/>
-      <c r="Q10" s="176"/>
+      <c r="N10" s="178"/>
+      <c r="O10" s="176"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="180"/>
     </row>
-    <row r="11" spans="1:17" ht="39.750000" customHeight="1">
-      <c r="A11" s="152">
+    <row r="11" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A11" s="160">
         <v>10</v>
       </c>
-      <c r="B11" s="152">
-        <v>1</v>
-      </c>
-      <c r="C11" s="155">
-        <v>1</v>
-      </c>
-      <c r="D11" s="157" t="s">
+      <c r="B11" s="160">
+        <v>1</v>
+      </c>
+      <c r="C11" s="162">
+        <v>1</v>
+      </c>
+      <c r="D11" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="157" t="s">
+      <c r="E11" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="157" t="s">
+      <c r="F11" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="157" t="s">
+      <c r="G11" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="157" t="s">
+      <c r="H11" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="161">
+      <c r="I11" s="165">
         <v>4</v>
       </c>
-      <c r="J11" s="163">
+      <c r="J11" s="167">
         <v>97</v>
       </c>
-      <c r="K11" s="166"/>
-      <c r="L11" s="169"/>
-      <c r="M11" s="172">
+      <c r="K11" s="170"/>
+      <c r="L11" s="173"/>
+      <c r="M11" s="176">
         <v>2</v>
       </c>
-      <c r="N11" s="174"/>
-      <c r="O11" s="172"/>
-      <c r="P11" s="172"/>
-      <c r="Q11" s="176"/>
+      <c r="N11" s="178"/>
+      <c r="O11" s="176"/>
+      <c r="P11" s="176"/>
+      <c r="Q11" s="180"/>
     </row>
-    <row r="12" spans="1:17" ht="39.750000" customHeight="1">
-      <c r="A12" s="152">
+    <row r="12" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A12" s="160">
         <v>11</v>
       </c>
-      <c r="B12" s="152">
-        <v>1</v>
-      </c>
-      <c r="C12" s="155">
-        <v>1</v>
-      </c>
-      <c r="D12" s="155" t="s">
+      <c r="B12" s="160">
+        <v>1</v>
+      </c>
+      <c r="C12" s="162">
+        <v>1</v>
+      </c>
+      <c r="D12" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="155" t="s">
+      <c r="E12" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="155" t="s">
+      <c r="F12" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="155" t="s">
+      <c r="G12" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="155" t="s">
+      <c r="H12" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="161">
+      <c r="I12" s="165">
         <v>5</v>
       </c>
-      <c r="J12" s="164">
+      <c r="J12" s="168">
         <v>95</v>
       </c>
-      <c r="K12" s="167"/>
-      <c r="L12" s="170"/>
-      <c r="M12" s="173">
+      <c r="K12" s="171"/>
+      <c r="L12" s="174"/>
+      <c r="M12" s="177">
         <v>3</v>
       </c>
-      <c r="N12" s="174"/>
-      <c r="O12" s="173"/>
-      <c r="P12" s="173"/>
-      <c r="Q12" s="177"/>
+      <c r="N12" s="178"/>
+      <c r="O12" s="177"/>
+      <c r="P12" s="177"/>
+      <c r="Q12" s="181"/>
     </row>
-    <row r="13" spans="1:17" ht="39.750000" customHeight="1">
-      <c r="A13" s="152">
+    <row r="13" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A13" s="160">
         <v>12</v>
       </c>
-      <c r="B13" s="152">
-        <v>1</v>
-      </c>
-      <c r="C13" s="155">
-        <v>1</v>
-      </c>
-      <c r="D13" s="155" t="s">
+      <c r="B13" s="160">
+        <v>1</v>
+      </c>
+      <c r="C13" s="162">
+        <v>1</v>
+      </c>
+      <c r="D13" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="155" t="s">
+      <c r="E13" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="155" t="s">
+      <c r="F13" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="155" t="s">
+      <c r="G13" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="155" t="s">
+      <c r="H13" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="161">
+      <c r="I13" s="165">
         <v>6</v>
       </c>
-      <c r="J13" s="164">
+      <c r="J13" s="168">
         <v>93</v>
       </c>
-      <c r="K13" s="167"/>
-      <c r="L13" s="170"/>
-      <c r="M13" s="173">
-        <v>1</v>
-      </c>
-      <c r="N13" s="174"/>
-      <c r="O13" s="173"/>
-      <c r="P13" s="173"/>
-      <c r="Q13" s="177"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="174"/>
+      <c r="M13" s="177">
+        <v>1</v>
+      </c>
+      <c r="N13" s="178"/>
+      <c r="O13" s="177"/>
+      <c r="P13" s="177"/>
+      <c r="Q13" s="181"/>
     </row>
-    <row r="14" spans="1:17" ht="39.750000" customHeight="1">
-      <c r="A14" s="152">
+    <row r="14" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A14" s="160">
         <v>13</v>
       </c>
-      <c r="B14" s="152">
-        <v>1</v>
-      </c>
-      <c r="C14" s="155">
-        <v>1</v>
-      </c>
-      <c r="D14" s="155" t="s">
+      <c r="B14" s="160">
+        <v>1</v>
+      </c>
+      <c r="C14" s="162">
+        <v>1</v>
+      </c>
+      <c r="D14" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="155" t="s">
+      <c r="E14" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="155" t="s">
+      <c r="F14" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="155" t="s">
+      <c r="G14" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="155" t="s">
+      <c r="H14" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="161">
+      <c r="I14" s="165">
         <v>7</v>
       </c>
-      <c r="J14" s="164">
+      <c r="J14" s="168">
         <v>93</v>
       </c>
-      <c r="K14" s="167"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="173">
+      <c r="K14" s="171"/>
+      <c r="L14" s="174"/>
+      <c r="M14" s="177">
         <v>2</v>
       </c>
-      <c r="N14" s="174"/>
-      <c r="O14" s="173"/>
-      <c r="P14" s="173"/>
-      <c r="Q14" s="177"/>
+      <c r="N14" s="178"/>
+      <c r="O14" s="177"/>
+      <c r="P14" s="177"/>
+      <c r="Q14" s="181"/>
     </row>
-    <row r="15" spans="1:17" ht="39.750000" customHeight="1">
-      <c r="A15" s="152">
+    <row r="15" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A15" s="160">
         <v>14</v>
       </c>
-      <c r="B15" s="152">
-        <v>1</v>
-      </c>
-      <c r="C15" s="155">
-        <v>1</v>
-      </c>
-      <c r="D15" s="155" t="s">
+      <c r="B15" s="160">
+        <v>1</v>
+      </c>
+      <c r="C15" s="162">
+        <v>1</v>
+      </c>
+      <c r="D15" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="155" t="s">
+      <c r="E15" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="155" t="s">
+      <c r="F15" s="162" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="155" t="s">
+      <c r="G15" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="155" t="s">
+      <c r="H15" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="161">
+      <c r="I15" s="165">
         <v>8</v>
       </c>
-      <c r="J15" s="164">
+      <c r="J15" s="168">
         <v>90</v>
       </c>
-      <c r="K15" s="167"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="173">
-        <v>1</v>
-      </c>
-      <c r="N15" s="174"/>
-      <c r="O15" s="173"/>
-      <c r="P15" s="173"/>
-      <c r="Q15" s="177"/>
+      <c r="K15" s="171"/>
+      <c r="L15" s="174"/>
+      <c r="M15" s="177">
+        <v>1</v>
+      </c>
+      <c r="N15" s="178"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="181"/>
+    </row>
+    <row r="16" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A16" s="182">
+        <v>1</v>
+      </c>
+      <c r="B16" s="182">
+        <v>1</v>
+      </c>
+      <c r="C16" s="184">
+        <v>1</v>
+      </c>
+      <c r="D16" s="184" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="186" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="191" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="186" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="185" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="196">
+        <v>3</v>
+      </c>
+      <c r="J16" s="197">
+        <v>98</v>
+      </c>
+      <c r="K16" s="198"/>
+      <c r="L16" s="200"/>
+      <c r="M16" s="202">
+        <v>3</v>
+      </c>
+      <c r="N16" s="204"/>
+      <c r="O16" s="202"/>
+      <c r="P16" s="202"/>
+      <c r="Q16" s="205"/>
+    </row>
+    <row r="17" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A17" s="182">
+        <v>2</v>
+      </c>
+      <c r="B17" s="182">
+        <v>1</v>
+      </c>
+      <c r="C17" s="184">
+        <v>1</v>
+      </c>
+      <c r="D17" s="185" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="187" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="192" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="185" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="185" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="196">
+        <v>3</v>
+      </c>
+      <c r="J17" s="197">
+        <v>98</v>
+      </c>
+      <c r="K17" s="198"/>
+      <c r="L17" s="200"/>
+      <c r="M17" s="202">
+        <v>3</v>
+      </c>
+      <c r="N17" s="204" t="e">
+        <v>#VALUE! </v>
+      </c>
+      <c r="O17" s="202"/>
+      <c r="P17" s="202"/>
+      <c r="Q17" s="205"/>
+    </row>
+    <row r="18" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A18" s="182">
+        <v>3</v>
+      </c>
+      <c r="B18" s="182">
+        <v>1</v>
+      </c>
+      <c r="C18" s="184">
+        <v>1</v>
+      </c>
+      <c r="D18" s="185" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="187" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="193" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="185" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="185" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="196">
+        <v>4</v>
+      </c>
+      <c r="J18" s="197">
+        <v>97</v>
+      </c>
+      <c r="K18" s="198"/>
+      <c r="L18" s="200"/>
+      <c r="M18" s="202">
+        <v>4</v>
+      </c>
+      <c r="N18" s="204"/>
+      <c r="O18" s="202"/>
+      <c r="P18" s="202"/>
+      <c r="Q18" s="205"/>
+    </row>
+    <row r="19" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A19" s="182">
+        <v>4</v>
+      </c>
+      <c r="B19" s="182">
+        <v>1</v>
+      </c>
+      <c r="C19" s="184">
+        <v>1</v>
+      </c>
+      <c r="D19" s="184" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="188" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="191" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="184" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="185" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="196">
+        <v>2</v>
+      </c>
+      <c r="J19" s="183">
+        <v>96</v>
+      </c>
+      <c r="K19" s="199"/>
+      <c r="L19" s="201"/>
+      <c r="M19" s="203">
+        <v>2</v>
+      </c>
+      <c r="N19" s="204"/>
+      <c r="O19" s="203"/>
+      <c r="P19" s="203"/>
+      <c r="Q19" s="206"/>
+    </row>
+    <row r="20" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A20" s="182">
+        <v>5</v>
+      </c>
+      <c r="B20" s="182">
+        <v>1</v>
+      </c>
+      <c r="C20" s="184">
+        <v>1</v>
+      </c>
+      <c r="D20" s="184" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="188" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="194" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="184" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="185" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="196">
+        <v>2</v>
+      </c>
+      <c r="J20" s="183">
+        <v>93</v>
+      </c>
+      <c r="K20" s="199"/>
+      <c r="L20" s="201"/>
+      <c r="M20" s="203">
+        <v>2</v>
+      </c>
+      <c r="N20" s="204" t="e">
+        <v>#VALUE! </v>
+      </c>
+      <c r="O20" s="203"/>
+      <c r="P20" s="203"/>
+      <c r="Q20" s="206"/>
+    </row>
+    <row r="21" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A21" s="182">
+        <v>6</v>
+      </c>
+      <c r="B21" s="182">
+        <v>1</v>
+      </c>
+      <c r="C21" s="184">
+        <v>1</v>
+      </c>
+      <c r="D21" s="184" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="188" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="194" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="184" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="185" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="196">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="183">
+        <v>90</v>
+      </c>
+      <c r="K21" s="199"/>
+      <c r="L21" s="201"/>
+      <c r="M21" s="203">
+        <v>1</v>
+      </c>
+      <c r="N21" s="204">
+        <v>0</v>
+      </c>
+      <c r="O21" s="203"/>
+      <c r="P21" s="203"/>
+      <c r="Q21" s="206"/>
+    </row>
+    <row r="22" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A22" s="182">
+        <v>8</v>
+      </c>
+      <c r="B22" s="182">
+        <v>1</v>
+      </c>
+      <c r="C22" s="184">
+        <v>1</v>
+      </c>
+      <c r="D22" s="185" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="188" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="194" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="185" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="185" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="196">
+        <v>3</v>
+      </c>
+      <c r="J22" s="197">
+        <v>88</v>
+      </c>
+      <c r="K22" s="198"/>
+      <c r="L22" s="200"/>
+      <c r="M22" s="202">
+        <v>3</v>
+      </c>
+      <c r="N22" s="204" t="e">
+        <v>#VALUE! </v>
+      </c>
+      <c r="O22" s="202"/>
+      <c r="P22" s="202"/>
+      <c r="Q22" s="205"/>
+    </row>
+    <row r="23" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A23" s="182">
+        <v>9</v>
+      </c>
+      <c r="B23" s="182">
+        <v>1</v>
+      </c>
+      <c r="C23" s="184">
+        <v>1</v>
+      </c>
+      <c r="D23" s="185" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="188" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="194" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="185" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="185" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="196">
+        <v>1</v>
+      </c>
+      <c r="J23" s="197">
+        <v>85</v>
+      </c>
+      <c r="K23" s="198"/>
+      <c r="L23" s="200"/>
+      <c r="M23" s="202">
+        <v>1</v>
+      </c>
+      <c r="N23" s="204">
+        <v>0</v>
+      </c>
+      <c r="O23" s="202"/>
+      <c r="P23" s="202"/>
+      <c r="Q23" s="205"/>
+    </row>
+    <row r="24" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A24" s="182">
+        <v>10</v>
+      </c>
+      <c r="B24" s="182">
+        <v>1</v>
+      </c>
+      <c r="C24" s="184">
+        <v>1</v>
+      </c>
+      <c r="D24" s="184" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="189" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="195" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="184" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="185" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="196">
+        <v>2</v>
+      </c>
+      <c r="J24" s="197">
+        <v>80</v>
+      </c>
+      <c r="K24" s="198"/>
+      <c r="L24" s="200"/>
+      <c r="M24" s="202">
+        <v>2</v>
+      </c>
+      <c r="N24" s="204"/>
+      <c r="O24" s="202"/>
+      <c r="P24" s="202"/>
+      <c r="Q24" s="205"/>
+    </row>
+    <row r="25" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A25" s="182">
+        <v>11</v>
+      </c>
+      <c r="B25" s="182">
+        <v>1</v>
+      </c>
+      <c r="C25" s="184">
+        <v>1</v>
+      </c>
+      <c r="D25" s="185" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="189" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="195" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="185" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="185" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="196">
+        <v>2</v>
+      </c>
+      <c r="J25" s="197">
+        <v>70</v>
+      </c>
+      <c r="K25" s="198"/>
+      <c r="L25" s="200"/>
+      <c r="M25" s="202">
+        <v>2</v>
+      </c>
+      <c r="N25" s="204" t="e">
+        <v>#VALUE! </v>
+      </c>
+      <c r="O25" s="202"/>
+      <c r="P25" s="202"/>
+      <c r="Q25" s="205"/>
+    </row>
+    <row r="26" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A26" s="182">
+        <v>12</v>
+      </c>
+      <c r="B26" s="183">
+        <v>1</v>
+      </c>
+      <c r="C26" s="184">
+        <v>1</v>
+      </c>
+      <c r="D26" s="185" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="188" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="194" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="185" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="185" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="196">
+        <v>2</v>
+      </c>
+      <c r="J26" s="197">
+        <v>68</v>
+      </c>
+      <c r="K26" s="198"/>
+      <c r="L26" s="200"/>
+      <c r="M26" s="202">
+        <v>2</v>
+      </c>
+      <c r="N26" s="204"/>
+      <c r="O26" s="202"/>
+      <c r="P26" s="202"/>
+      <c r="Q26" s="205"/>
+    </row>
+    <row r="27" spans="1:17" ht="34.500000" customHeight="1">
+      <c r="A27" s="182">
+        <v>13</v>
+      </c>
+      <c r="B27" s="184">
+        <v>1</v>
+      </c>
+      <c r="C27" s="184">
+        <v>1</v>
+      </c>
+      <c r="D27" s="184" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="190" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="191" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="184" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="184" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="196">
+        <v>3</v>
+      </c>
+      <c r="J27" s="183">
+        <v>60</v>
+      </c>
+      <c r="K27" s="199"/>
+      <c r="L27" s="201"/>
+      <c r="M27" s="203">
+        <v>3</v>
+      </c>
+      <c r="N27" s="204" t="e">
+        <v>#VALUE! </v>
+      </c>
+      <c r="O27" s="203"/>
+      <c r="P27" s="203"/>
+      <c r="Q27" s="206"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
